--- a/data/spreadsheets/Image.xlsx
+++ b/data/spreadsheets/Image.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885C012F-17F6-D04A-BD8E-59BC4246FFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482C3B5B-9263-AB46-9BFD-01A159DED5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="500" windowWidth="66960" windowHeight="30840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -69,9 +80,6 @@
     <t>John Tenniel</t>
   </si>
   <si>
-    <t>data/Multimedia_Data/Image/</t>
-  </si>
-  <si>
     <t>Alice accepting a thimble from Dodo</t>
   </si>
   <si>
@@ -1189,6 +1197,9 @@
   </si>
   <si>
     <t>Public Domain</t>
+  </si>
+  <si>
+    <t>data/multimedia/image/</t>
   </si>
 </sst>
 </file>
@@ -1466,8 +1477,8 @@
   </sheetPr>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G74" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1532,3408 +1543,3408 @@
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="4">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4">
         <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4">
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4">
         <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="4">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="4">
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="4">
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="4">
         <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="4">
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="4">
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="4">
         <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="4">
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="4">
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="4">
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="4">
         <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="4">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="4">
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I19" s="4">
-        <v>22</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="4">
         <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="4">
         <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="4">
         <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="4">
         <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="4">
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="4">
         <v>47</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="4">
         <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="4">
         <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" s="4">
         <v>49</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" s="4">
         <v>48</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="4">
         <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="4">
         <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="4">
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="4">
         <v>40</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="4">
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="H35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="4">
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="H36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="4">
+        <v>13</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I36" s="4">
-        <v>13</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" s="4">
         <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" s="4">
         <v>28</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="4">
         <v>42</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="H41" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="4">
         <v>15</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="H42" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="4">
         <v>24</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="H43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="4">
+        <v>23</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I43" s="4">
-        <v>23</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="H44" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" s="4">
         <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" s="4">
         <v>6</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="4">
         <v>27</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="H47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="4">
+        <v>21</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I47" s="4">
-        <v>21</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="4">
         <v>31</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="H49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="4">
         <v>19</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="H50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" s="4">
         <v>18</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="H51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="4">
         <v>16</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" s="4">
         <v>17</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" s="4">
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="H54" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" s="4">
         <v>33</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="H55" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" s="4">
         <v>34</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I56" s="4">
         <v>35</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57" s="4">
         <v>27</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="H58" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="4">
         <v>39</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="4">
         <v>38</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="4">
         <v>26</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="H61" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I61" s="4">
         <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H62" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62" s="4">
         <v>32</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="H63" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63" s="4">
         <v>31</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="H64" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" s="4">
         <v>9</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="H65" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I65" s="4">
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="H66" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" s="4">
         <v>41</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="H67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I67" s="4">
         <v>36</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K67" s="5"/>
       <c r="L67" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="H68" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I68" s="4">
         <v>35</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="H69" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I69" s="4">
         <v>34</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="H70" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70" s="4">
         <v>10</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I71" s="4">
         <v>46</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="H72" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I72" s="4">
         <v>29</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="4">
+        <v>23</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I73" s="4">
-        <v>23</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="H74" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I74" s="4">
         <v>38</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="H75" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I75" s="4">
         <v>43</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="H76" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I76" s="4">
         <v>44</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="H77" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I77" s="4">
         <v>15</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H78" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I78" s="4">
         <v>16</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="H79" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I79" s="4">
         <v>14</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K79" s="5"/>
       <c r="L79" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="H80" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I80" s="4">
         <v>8</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="H81" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I81" s="4">
         <v>10</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="H82" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82" s="4">
         <v>25</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="H83" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I83" s="4">
         <v>24</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="4">
+        <v>22</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" s="4">
-        <v>22</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="4">
+        <v>21</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" s="4">
-        <v>21</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="H86" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I86" s="4">
         <v>20</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="H87" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I87" s="4">
         <v>33</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="H88" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I88" s="4">
         <v>39</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="H89" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I89" s="4">
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L89" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="H90" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I90" s="4">
         <v>41</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="H91" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I91" s="4">
         <v>37</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="H92" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I92" s="4">
         <v>2</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K92" s="5"/>
       <c r="L92" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="H93" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I93" s="4">
         <v>6</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K93" s="5"/>
       <c r="L93" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Image.xlsx
+++ b/data/spreadsheets/Image.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482C3B5B-9263-AB46-9BFD-01A159DED5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D06A85C-FEF0-2C47-8677-91A2A8A7CCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="71020" windowHeight="21760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="390">
   <si>
     <t>ID</t>
   </si>
@@ -1200,6 +1200,12 @@
   </si>
   <si>
     <t>data/multimedia/image/</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>Noémi Villars-Amberg, Daniela Subotic</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1279,6 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,10 +1482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G74" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1504,7 @@
     <col min="12" max="12" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,8 +1541,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1570,8 +1580,11 @@
       <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1608,8 +1621,11 @@
       <c r="L3" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1644,8 +1660,11 @@
       <c r="L4" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,8 +1701,11 @@
       <c r="L5" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1720,8 +1742,11 @@
       <c r="L6" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1758,8 +1783,11 @@
       <c r="L7" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1794,8 +1822,11 @@
       <c r="L8" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1832,8 +1863,11 @@
       <c r="L9" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1870,8 +1904,11 @@
       <c r="L10" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1908,8 +1945,11 @@
       <c r="L11" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -1946,8 +1986,11 @@
       <c r="L12" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1982,8 +2025,11 @@
       <c r="L13" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -2020,8 +2066,11 @@
       <c r="L14" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -2056,8 +2105,11 @@
       <c r="L15" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
@@ -2094,8 +2146,11 @@
       <c r="L16" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -2130,8 +2185,11 @@
       <c r="L17" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
@@ -2166,8 +2224,11 @@
       <c r="L18" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
@@ -2202,8 +2263,11 @@
       <c r="L19" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -2240,8 +2304,11 @@
       <c r="L20" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -2278,8 +2345,11 @@
       <c r="L21" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -2316,8 +2386,11 @@
       <c r="L22" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -2352,8 +2425,11 @@
       <c r="L23" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -2390,8 +2466,11 @@
       <c r="L24" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -2428,8 +2507,11 @@
       <c r="L25" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -2466,8 +2548,11 @@
       <c r="L26" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>117</v>
       </c>
@@ -2504,8 +2589,11 @@
       <c r="L27" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>121</v>
       </c>
@@ -2542,8 +2630,11 @@
       <c r="L28" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -2580,8 +2671,11 @@
       <c r="L29" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
@@ -2618,8 +2712,11 @@
       <c r="L30" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>133</v>
       </c>
@@ -2654,8 +2751,11 @@
       <c r="L31" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>137</v>
       </c>
@@ -2690,8 +2790,11 @@
       <c r="L32" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -2726,8 +2829,11 @@
       <c r="L33" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
@@ -2764,8 +2870,11 @@
       <c r="L34" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
@@ -2800,8 +2909,11 @@
       <c r="L35" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
@@ -2836,8 +2948,11 @@
       <c r="L36" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
@@ -2874,8 +2989,11 @@
       <c r="L37" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>161</v>
       </c>
@@ -2912,8 +3030,11 @@
       <c r="L38" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>165</v>
       </c>
@@ -2948,8 +3069,11 @@
       <c r="L39" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2984,8 +3108,11 @@
       <c r="L40" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>173</v>
       </c>
@@ -3020,8 +3147,11 @@
       <c r="L41" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>177</v>
       </c>
@@ -3056,8 +3186,11 @@
       <c r="L42" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>181</v>
       </c>
@@ -3092,8 +3225,11 @@
       <c r="L43" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>185</v>
       </c>
@@ -3130,8 +3266,11 @@
       <c r="L44" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>189</v>
       </c>
@@ -3168,8 +3307,11 @@
       <c r="L45" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
@@ -3204,8 +3346,11 @@
       <c r="L46" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>197</v>
       </c>
@@ -3240,8 +3385,11 @@
       <c r="L47" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>201</v>
       </c>
@@ -3276,8 +3424,11 @@
       <c r="L48" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>205</v>
       </c>
@@ -3312,8 +3463,11 @@
       <c r="L49" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>209</v>
       </c>
@@ -3348,8 +3502,11 @@
       <c r="L50" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -3384,8 +3541,11 @@
       <c r="L51" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>217</v>
       </c>
@@ -3420,8 +3580,11 @@
       <c r="L52" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>221</v>
       </c>
@@ -3456,8 +3619,11 @@
       <c r="L53" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>225</v>
       </c>
@@ -3492,8 +3658,11 @@
       <c r="L54" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>229</v>
       </c>
@@ -3530,8 +3699,11 @@
       <c r="L55" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>233</v>
       </c>
@@ -3568,8 +3740,11 @@
       <c r="L56" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>237</v>
       </c>
@@ -3606,8 +3781,11 @@
       <c r="L57" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>241</v>
       </c>
@@ -3642,8 +3820,11 @@
       <c r="L58" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>245</v>
       </c>
@@ -3678,8 +3859,11 @@
       <c r="L59" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>249</v>
       </c>
@@ -3714,8 +3898,11 @@
       <c r="L60" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>253</v>
       </c>
@@ -3752,8 +3939,11 @@
       <c r="L61" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>257</v>
       </c>
@@ -3790,8 +3980,11 @@
       <c r="L62" s="6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>261</v>
       </c>
@@ -3828,8 +4021,11 @@
       <c r="L63" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>265</v>
       </c>
@@ -3866,8 +4062,11 @@
       <c r="L64" s="6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>269</v>
       </c>
@@ -3902,8 +4101,11 @@
       <c r="L65" s="6" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>273</v>
       </c>
@@ -3938,8 +4140,11 @@
       <c r="L66" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>277</v>
       </c>
@@ -3974,8 +4179,11 @@
       <c r="L67" s="6" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>281</v>
       </c>
@@ -4010,8 +4218,11 @@
       <c r="L68" s="6" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M68" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>285</v>
       </c>
@@ -4046,8 +4257,11 @@
       <c r="L69" s="6" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>289</v>
       </c>
@@ -4082,8 +4296,11 @@
       <c r="L70" s="6" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>293</v>
       </c>
@@ -4120,8 +4337,11 @@
       <c r="L71" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>297</v>
       </c>
@@ -4156,8 +4376,11 @@
       <c r="L72" s="6" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M72" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>301</v>
       </c>
@@ -4194,8 +4417,11 @@
       <c r="L73" s="6" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>305</v>
       </c>
@@ -4232,8 +4458,11 @@
       <c r="L74" s="6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>309</v>
       </c>
@@ -4270,8 +4499,11 @@
       <c r="L75" s="6" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>313</v>
       </c>
@@ -4308,8 +4540,11 @@
       <c r="L76" s="6" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>317</v>
       </c>
@@ -4346,8 +4581,11 @@
       <c r="L77" s="6" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>321</v>
       </c>
@@ -4384,8 +4622,11 @@
       <c r="L78" s="6" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>325</v>
       </c>
@@ -4420,8 +4661,11 @@
       <c r="L79" s="6" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>329</v>
       </c>
@@ -4458,8 +4702,11 @@
       <c r="L80" s="6" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>333</v>
       </c>
@@ -4496,8 +4743,11 @@
       <c r="L81" s="6" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>337</v>
       </c>
@@ -4534,8 +4784,11 @@
       <c r="L82" s="6" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>341</v>
       </c>
@@ -4572,8 +4825,11 @@
       <c r="L83" s="6" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>345</v>
       </c>
@@ -4610,8 +4866,11 @@
       <c r="L84" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>349</v>
       </c>
@@ -4648,8 +4907,11 @@
       <c r="L85" s="6" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>353</v>
       </c>
@@ -4686,8 +4948,11 @@
       <c r="L86" s="6" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>357</v>
       </c>
@@ -4724,8 +4989,11 @@
       <c r="L87" s="6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>361</v>
       </c>
@@ -4762,8 +5030,11 @@
       <c r="L88" s="6" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M88" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>365</v>
       </c>
@@ -4800,8 +5071,11 @@
       <c r="L89" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>369</v>
       </c>
@@ -4838,8 +5112,11 @@
       <c r="L90" s="6" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M90" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>373</v>
       </c>
@@ -4874,8 +5151,11 @@
       <c r="L91" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>377</v>
       </c>
@@ -4910,8 +5190,11 @@
       <c r="L92" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>381</v>
       </c>
@@ -4945,6 +5228,9 @@
       <c r="K93" s="5"/>
       <c r="L93" s="6" t="s">
         <v>384</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Image.xlsx
+++ b/data/spreadsheets/Image.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D06A85C-FEF0-2C47-8677-91A2A8A7CCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6B5D9-7E33-AF46-98C8-6B52455814E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="71020" windowHeight="21760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="38220" windowHeight="31500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$93</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="435">
   <si>
     <t>ID</t>
   </si>
@@ -62,9 +65,6 @@
     <t>Seqnum</t>
   </si>
   <si>
-    <t>Permission</t>
-  </si>
-  <si>
     <t>Restricted view</t>
   </si>
   <si>
@@ -86,9 +86,6 @@
     <t>BK_001</t>
   </si>
   <si>
-    <t>prop-default</t>
-  </si>
-  <si>
     <t>https://iiif.rdu-08.dasch.swiss:443/0854/0rJGrIFZqlz-B4VYqLtkesr.jpx/full/793,906/0/default.jpg</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>BK_002</t>
   </si>
   <si>
-    <t>bitstream-prop-restricted</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1206,13 +1200,157 @@
   </si>
   <si>
     <t>Noémi Villars-Amberg, Daniela Subotic</t>
+  </si>
+  <si>
+    <t>Character ID</t>
+  </si>
+  <si>
+    <t>CH_001</t>
+  </si>
+  <si>
+    <t>CH_002</t>
+  </si>
+  <si>
+    <t>CH_003</t>
+  </si>
+  <si>
+    <t>CH_004</t>
+  </si>
+  <si>
+    <t>CH_005</t>
+  </si>
+  <si>
+    <t>CH_007</t>
+  </si>
+  <si>
+    <t>CH_008</t>
+  </si>
+  <si>
+    <t>CH_010</t>
+  </si>
+  <si>
+    <t>CH_012</t>
+  </si>
+  <si>
+    <t>CH_013</t>
+  </si>
+  <si>
+    <t>CH_014</t>
+  </si>
+  <si>
+    <t>CH_017</t>
+  </si>
+  <si>
+    <t>CH_018</t>
+  </si>
+  <si>
+    <t>CH_026</t>
+  </si>
+  <si>
+    <t>CH_027</t>
+  </si>
+  <si>
+    <t>CH_030</t>
+  </si>
+  <si>
+    <t>CH_001, CH_015</t>
+  </si>
+  <si>
+    <t>CH_001, CH_049</t>
+  </si>
+  <si>
+    <t>CH_001, CH_008</t>
+  </si>
+  <si>
+    <t>CH_001, CH_030</t>
+  </si>
+  <si>
+    <t>CH_001, CH_011</t>
+  </si>
+  <si>
+    <t>CH_001, CH_014</t>
+  </si>
+  <si>
+    <t>CH_001, CH_044</t>
+  </si>
+  <si>
+    <t>CH_001, CH_013</t>
+  </si>
+  <si>
+    <t>CH_001, CH_036</t>
+  </si>
+  <si>
+    <t>CH_001, CH_032</t>
+  </si>
+  <si>
+    <t>CH_001, CH_050</t>
+  </si>
+  <si>
+    <t>CH_001, CH_002</t>
+  </si>
+  <si>
+    <t>CH_001, CH_042</t>
+  </si>
+  <si>
+    <t>CH_001, CH_040</t>
+  </si>
+  <si>
+    <t>CH_040</t>
+  </si>
+  <si>
+    <t>CH_035</t>
+  </si>
+  <si>
+    <t>CH_041</t>
+  </si>
+  <si>
+    <t>CH_038</t>
+  </si>
+  <si>
+    <t>CH_012, CH_001</t>
+  </si>
+  <si>
+    <t>CH_017, CH_006</t>
+  </si>
+  <si>
+    <t>CH_039</t>
+  </si>
+  <si>
+    <t>CH_009, CH_001, CH_010</t>
+  </si>
+  <si>
+    <t>CH_006, CH_001</t>
+  </si>
+  <si>
+    <t>CH_047</t>
+  </si>
+  <si>
+    <t>CH_048, CH_013</t>
+  </si>
+  <si>
+    <t>CH_011, CH_049, CH_001</t>
+  </si>
+  <si>
+    <t>CH_028, CH_001</t>
+  </si>
+  <si>
+    <t>CH_043, CH_001</t>
+  </si>
+  <si>
+    <t>CH_044</t>
+  </si>
+  <si>
+    <t>CH_045, CH_046</t>
+  </si>
+  <si>
+    <t>CH_002, CH_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
@@ -1231,6 +1369,18 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1276,7 +1426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1286,6 +1436,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1484,8 +1641,8 @@
   </sheetPr>
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1493,15 +1650,16 @@
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="52.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="89.7109375" customWidth="1"/>
+    <col min="13" max="13" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1529,3711 +1687,3701 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="I2" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="4">
         <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" s="4">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="L3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="M3" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4">
+        <v>14</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="4">
         <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="4">
-        <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="M5" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="J6" s="4">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="4">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="M6" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="J7" s="4">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="4">
-        <v>11</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="M7" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4">
+        <v>14</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J8" s="4">
         <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="J9" s="4">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="4">
-        <v>19</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="M9" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J10" s="4">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="4">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="M10" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="M11" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="J12" s="4">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="4">
-        <v>40</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="M12" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="4">
+        <v>14</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="J13" s="4">
         <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="4">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="M14" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="4">
+        <v>14</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="J15" s="4">
         <v>5</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J16" s="4">
+        <v>36</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="4">
-        <v>36</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="M16" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="J17" s="4">
         <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="4">
+        <v>14</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="J18" s="4">
         <v>4</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="4">
+        <v>14</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="J19" s="4">
         <v>22</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J20" s="4">
+        <v>28</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="4">
-        <v>28</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="M20" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J21" s="4">
+        <v>42</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="4">
-        <v>42</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="M21" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="J22" s="4">
+        <v>50</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="4">
-        <v>50</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="M22" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="4">
+        <v>14</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J23" s="4">
         <v>11</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="J24" s="4">
+        <v>7</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="4">
-        <v>7</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="M24" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J25" s="4">
+        <v>47</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="4">
-        <v>47</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="M25" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J26" s="4">
+        <v>37</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="4">
-        <v>37</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="M26" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J27" s="4">
+        <v>29</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="4">
-        <v>29</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="M27" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="J28" s="4">
+        <v>49</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="4">
-        <v>49</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="M28" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="J29" s="4">
+        <v>48</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="4">
-        <v>48</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="M29" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J30" s="4">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="4">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="M30" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="4">
+        <v>14</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J31" s="4">
         <v>25</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="4">
+        <v>14</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J32" s="4">
         <v>7</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="4">
+        <v>14</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J33" s="4">
         <v>40</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="4">
-        <v>3</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="M34" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="4">
-        <v>12</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J35" s="4">
+        <v>12</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="J36" s="4">
         <v>13</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="4">
-        <v>13</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="J37" s="4">
+        <v>2</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="4">
-        <v>2</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="M37" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4">
+        <v>17</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="4">
-        <v>17</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="M38" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="4">
+        <v>14</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="J39" s="4">
         <v>28</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="4">
+        <v>14</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4">
         <v>42</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="J41" s="4">
         <v>15</v>
-      </c>
-      <c r="I41" s="4">
-        <v>15</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="4">
+        <v>14</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="J42" s="4">
         <v>24</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="4">
+        <v>14</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="J43" s="4">
         <v>23</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4">
+        <v>12</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="4">
-        <v>12</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="M44" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="J45" s="4">
+        <v>6</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="4">
-        <v>6</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="M45" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="4">
+        <v>14</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="J46" s="4">
         <v>27</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="4">
+        <v>14</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="J47" s="4">
         <v>21</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="4">
+        <v>14</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="J48" s="4">
         <v>31</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="4">
+        <v>14</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" s="4">
         <v>19</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="4">
+        <v>14</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="J50" s="4">
         <v>18</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="4">
-        <v>16</v>
-      </c>
-      <c r="J51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="J51" s="4">
         <v>16</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="4">
+        <v>14</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="J52" s="4">
         <v>17</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="4">
+        <v>14</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="J53" s="4">
         <v>20</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="4">
+        <v>14</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" s="4">
         <v>33</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J55" s="4">
+        <v>34</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="4">
-        <v>34</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="M55" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" s="4">
+        <v>35</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="4">
-        <v>35</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="M56" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" s="4">
+        <v>27</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="4">
-        <v>27</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="M57" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="4">
+        <v>14</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J58" s="4">
         <v>39</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="4">
+        <v>14</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J59" s="4">
         <v>38</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="4">
+        <v>14</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J60" s="4">
         <v>26</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="J61" s="4">
+        <v>30</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="4">
-        <v>30</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="M61" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="J62" s="4">
+        <v>32</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="4">
-        <v>32</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="M62" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4">
+        <v>31</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="4">
-        <v>31</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="M63" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="J64" s="4">
+        <v>9</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="4">
-        <v>9</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="M64" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="4">
+        <v>14</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J65" s="4">
         <v>1</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="4">
+        <v>14</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J66" s="4">
         <v>41</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" s="4">
+        <v>14</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="J67" s="4">
         <v>36</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K67" s="5"/>
       <c r="L67" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="4">
+        <v>14</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="J68" s="4">
         <v>35</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="4">
+        <v>14</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="J69" s="4">
         <v>34</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="4">
+        <v>14</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="J70" s="4">
         <v>10</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4">
+        <v>46</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="4">
-        <v>46</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="M71" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="4">
+        <v>14</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="J72" s="4">
         <v>29</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="J73" s="4">
+        <v>23</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="4">
-        <v>23</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="M73" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="J74" s="4">
+        <v>38</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="4">
-        <v>38</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="M74" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J75" s="4">
+        <v>43</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="4">
-        <v>43</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="M75" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J76" s="4">
+        <v>44</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="4">
-        <v>44</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="M76" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4">
+        <v>15</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="4">
-        <v>15</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="M77" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4">
+        <v>16</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="4">
-        <v>16</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="M78" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" s="4">
         <v>14</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>16</v>
+      <c r="I79" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J79" s="4">
+        <v>14</v>
       </c>
       <c r="K79" s="5"/>
       <c r="L79" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J80" s="4">
+        <v>8</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="4">
-        <v>8</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="M80" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J81" s="4">
+        <v>10</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="4">
-        <v>10</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="M81" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="J82" s="4">
+        <v>25</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="4">
-        <v>25</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>340</v>
-      </c>
       <c r="M82" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="J83" s="4">
+        <v>24</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="4">
-        <v>24</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="M83" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="J84" s="4">
+        <v>22</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="4">
-        <v>22</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="M84" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="J85" s="4">
+        <v>21</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="4">
-        <v>21</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="M85" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="J86" s="4">
+        <v>20</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="4">
-        <v>20</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L86" s="6" t="s">
-        <v>356</v>
-      </c>
       <c r="M86" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4">
+        <v>33</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" s="4">
-        <v>33</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="M87" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J88" s="4">
+        <v>39</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I88" s="4">
-        <v>39</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="M88" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I89" s="4">
-        <v>1</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L89" t="s">
-        <v>368</v>
-      </c>
       <c r="M89" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J90" s="4">
+        <v>41</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I90" s="4">
-        <v>41</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>372</v>
-      </c>
       <c r="M90" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J91" s="4">
+        <v>37</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" s="4">
-        <v>37</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="5"/>
-      <c r="L91" t="s">
-        <v>376</v>
-      </c>
       <c r="M91" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="L92" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" s="4">
-        <v>2</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K92" s="5"/>
-      <c r="L92" t="s">
-        <v>380</v>
-      </c>
       <c r="M92" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I93" s="4">
+        <v>14</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="J93" s="4">
         <v>6</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K93" s="5"/>
       <c r="L93" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M93" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M93">
+      <sortCondition ref="G1:G93"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L48" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/data/spreadsheets/Image.xlsx
+++ b/data/spreadsheets/Image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211AE2D6-D909-9E44-BC53-1BE880340675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14124926-FD1D-DD46-B7BD-41FA8D1E464E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="46520" windowHeight="31500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="65080" windowHeight="31500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="472">
   <si>
     <t>ID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Seqnum</t>
   </si>
   <si>
-    <t>Restricted view</t>
-  </si>
-  <si>
     <t>URI DaSCH</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>BK_002</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>https://iiif.rdu-08.dasch.swiss:443/0854/33x1L73Msy3-1pMUJviTEhA.jpx/full/753,1024/0/default.jpg</t>
   </si>
   <si>
@@ -1455,6 +1449,12 @@
   </si>
   <si>
     <t>CH_048, CH_013, CH_001</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Limited View</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1555,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1755,8 +1755,8 @@
   </sheetPr>
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1803,3972 +1803,4056 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K2" s="5">
         <v>1</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M2" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K3" s="5">
         <v>2</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M3" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K4" s="5">
         <v>3</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K5" s="5">
         <v>4</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M6" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K7" s="5">
         <v>6</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M7" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K8" s="5">
         <v>7</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M8" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K9" s="5">
         <v>8</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K10" s="5">
         <v>9</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M10" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K11" s="5">
         <v>10</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K12" s="5">
+        <v>11</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K12" s="5">
-        <v>11</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="N12" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K13" s="5">
         <v>12</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M13" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K14" s="5">
         <v>13</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M14" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K15" s="5">
         <v>14</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M15" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K16" s="5">
         <v>15</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M16" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K17" s="5">
         <v>16</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M17" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K18" s="5">
         <v>17</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M18" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K19" s="5">
         <v>18</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M19" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K20" s="5">
         <v>19</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M20" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K21" s="5">
         <v>20</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M21" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K22" s="5">
         <v>21</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M22" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K23" s="5">
         <v>22</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M23" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K24" s="5">
         <v>23</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M24" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K25" s="5">
         <v>24</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M25" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K26" s="5">
         <v>25</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K27" s="5">
         <v>26</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M27" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K28" s="5">
         <v>27</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M28" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K29" s="5">
         <v>28</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M29" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K30" s="5">
         <v>29</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M30" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K31" s="5">
         <v>30</v>
       </c>
-      <c r="L31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M31" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K32" s="5">
         <v>31</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M32" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H33" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K33" s="5">
         <v>32</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M33" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="H34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K34" s="5">
         <v>33</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M34" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K35" s="5">
         <v>34</v>
       </c>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M35" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="H36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K36" s="5">
         <v>35</v>
       </c>
-      <c r="L36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M36" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="H37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K37" s="5">
         <v>36</v>
       </c>
-      <c r="L37" s="6"/>
+      <c r="L37" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M37" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="H38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K38" s="5">
         <v>37</v>
       </c>
-      <c r="L38" s="6"/>
+      <c r="L38" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M38" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="H39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K39" s="5">
         <v>38</v>
       </c>
-      <c r="L39" s="6"/>
+      <c r="L39" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M39" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="H40" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K40" s="5">
         <v>39</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M40" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K41" s="5">
         <v>40</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="H42" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K42" s="5">
         <v>41</v>
       </c>
-      <c r="L42" s="6"/>
+      <c r="L42" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M42" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K43" s="5">
         <v>42</v>
       </c>
-      <c r="L43" s="6"/>
+      <c r="L43" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="M43" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="H44" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K44" s="5">
         <v>43</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>20</v>
+      <c r="L44" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K45" s="5">
         <v>44</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>20</v>
+      <c r="L45" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H46" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K46" s="5">
         <v>45</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>20</v>
+      <c r="L46" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="H47" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K47" s="5">
         <v>46</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>20</v>
+      <c r="L47" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K48" s="5">
         <v>47</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>20</v>
+      <c r="L48" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K49" s="5">
         <v>48</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>20</v>
+      <c r="L49" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="H50" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K50" s="5">
         <v>49</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>20</v>
+      <c r="L50" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="H51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K51" s="5">
         <v>50</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>20</v>
+      <c r="L51" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="H52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K52" s="5">
         <v>51</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>20</v>
+      <c r="L52" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="H53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K53" s="5">
         <v>52</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>20</v>
+      <c r="L53" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H54" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K54" s="5">
         <v>53</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>20</v>
+      <c r="L54" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="H55" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="5">
         <v>54</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>20</v>
+      <c r="L55" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K56" s="5">
         <v>55</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>20</v>
+      <c r="L56" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K57" s="5">
         <v>56</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>20</v>
+      <c r="L57" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="H58" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="5">
         <v>57</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>20</v>
+      <c r="L58" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="H59" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="5">
         <v>58</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>20</v>
+      <c r="L59" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="H60" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="5">
         <v>59</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>20</v>
+      <c r="L60" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H61" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K61" s="5">
         <v>60</v>
       </c>
-      <c r="L61" s="3" t="s">
-        <v>20</v>
+      <c r="L61" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H62" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K62" s="5">
         <v>61</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>20</v>
+      <c r="L62" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="H63" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K63" s="5">
         <v>62</v>
       </c>
-      <c r="L63" s="3" t="s">
-        <v>20</v>
+      <c r="L63" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="H64" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K64" s="5">
         <v>63</v>
       </c>
-      <c r="L64" s="3" t="s">
-        <v>20</v>
+      <c r="L64" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="H65" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K65" s="5">
         <v>64</v>
       </c>
-      <c r="L65" s="3" t="s">
-        <v>20</v>
+      <c r="L65" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="H66" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K66" s="5">
         <v>65</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>20</v>
+      <c r="L66" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="H67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I67" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="J67" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="K67" s="5">
         <v>66</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>20</v>
+      <c r="L67" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="H68" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I68" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="K68" s="5">
         <v>67</v>
       </c>
-      <c r="L68" s="3" t="s">
-        <v>20</v>
+      <c r="L68" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I69" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K69" s="5">
         <v>68</v>
       </c>
-      <c r="L69" s="3" t="s">
-        <v>20</v>
+      <c r="L69" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="H70" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K70" s="5">
         <v>69</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>20</v>
+      <c r="L70" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="H71" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K71" s="5">
         <v>70</v>
       </c>
-      <c r="L71" s="3" t="s">
-        <v>20</v>
+      <c r="L71" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="H72" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K72" s="5">
         <v>71</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>20</v>
+      <c r="L72" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="H73" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K73" s="5">
         <v>72</v>
       </c>
-      <c r="L73" s="3" t="s">
-        <v>20</v>
+      <c r="L73" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="H74" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="5">
         <v>73</v>
       </c>
-      <c r="L74" s="3" t="s">
-        <v>20</v>
+      <c r="L74" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="H75" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K75" s="5">
         <v>74</v>
       </c>
-      <c r="L75" s="3" t="s">
-        <v>20</v>
+      <c r="L75" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="H76" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="5">
         <v>75</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>20</v>
+      <c r="L76" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="H77" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K77" s="5">
         <v>76</v>
       </c>
-      <c r="L77" s="3" t="s">
-        <v>20</v>
+      <c r="L77" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="H78" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K78" s="5">
         <v>77</v>
       </c>
-      <c r="L78" s="3" t="s">
-        <v>20</v>
+      <c r="L78" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="H79" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K79" s="5">
         <v>78</v>
       </c>
-      <c r="L79" s="3" t="s">
-        <v>20</v>
+      <c r="L79" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="H80" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K80" s="5">
         <v>79</v>
       </c>
-      <c r="L80" s="3" t="s">
-        <v>20</v>
+      <c r="L80" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="H81" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K81" s="5">
         <v>80</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>20</v>
+      <c r="L81" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="H82" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K82" s="5">
         <v>81</v>
       </c>
-      <c r="L82" s="3" t="s">
-        <v>20</v>
+      <c r="L82" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H83" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K83" s="5">
         <v>82</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>20</v>
+      <c r="L83" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="H84" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K84" s="5">
         <v>83</v>
       </c>
-      <c r="L84" s="3" t="s">
-        <v>20</v>
+      <c r="L84" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="H85" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K85" s="5">
         <v>84</v>
       </c>
-      <c r="L85" s="3" t="s">
-        <v>20</v>
+      <c r="L85" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="H86" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K86" s="5">
         <v>85</v>
       </c>
-      <c r="L86" s="3" t="s">
-        <v>20</v>
+      <c r="L86" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="H87" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K87" s="5">
         <v>86</v>
       </c>
-      <c r="L87" s="3" t="s">
-        <v>20</v>
+      <c r="L87" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K88" s="5">
         <v>87</v>
       </c>
-      <c r="L88" s="3" t="s">
-        <v>20</v>
+      <c r="L88" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="5">
         <v>88</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>20</v>
+      <c r="L89" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="H90" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K90" s="5">
         <v>89</v>
       </c>
-      <c r="L90" s="3" t="s">
-        <v>20</v>
+      <c r="L90" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="H91" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K91" s="5">
         <v>90</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>20</v>
+      <c r="L91" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="H92" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K92" s="5">
         <v>91</v>
       </c>
-      <c r="L92" s="3" t="s">
-        <v>20</v>
+      <c r="L92" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="H93" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K93" s="5">
         <v>92</v>
       </c>
-      <c r="L93" s="3" t="s">
-        <v>20</v>
+      <c r="L93" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Image.xlsx
+++ b/data/spreadsheets/Image.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14124926-FD1D-DD46-B7BD-41FA8D1E464E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB98B19-1B20-5149-B431-7343B114C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="65080" windowHeight="31500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="500" windowWidth="66540" windowHeight="31500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$93</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="512">
   <si>
     <t>ID</t>
   </si>
@@ -1455,13 +1455,133 @@
   </si>
   <si>
     <t>Limited View</t>
+  </si>
+  <si>
+    <t>IMGALT_Alice_1.jpg</t>
+  </si>
+  <si>
+    <t>IMGALT_Alice_2.jpg</t>
+  </si>
+  <si>
+    <t>IMGALT_Cyberpillar_1.jpg</t>
+  </si>
+  <si>
+    <t>IMGALT_DaSCHland.jpg</t>
+  </si>
+  <si>
+    <t>IMGALT_Data_Queen.jpg</t>
+  </si>
+  <si>
+    <t>IMGALT_Mockup_Data.jpg</t>
+  </si>
+  <si>
+    <t>IMGALT_Quantum_Cat.jpg</t>
+  </si>
+  <si>
+    <t>IMGALT_RabbIT.jpg</t>
+  </si>
+  <si>
+    <t>IMGALT_Real-Time_Processor.jpg</t>
+  </si>
+  <si>
+    <t>IMGALT_System_Protector.jpg</t>
+  </si>
+  <si>
+    <t>I_093</t>
+  </si>
+  <si>
+    <t>I_094</t>
+  </si>
+  <si>
+    <t>I_095</t>
+  </si>
+  <si>
+    <t>I_096</t>
+  </si>
+  <si>
+    <t>I_097</t>
+  </si>
+  <si>
+    <t>I_098</t>
+  </si>
+  <si>
+    <t>I_099</t>
+  </si>
+  <si>
+    <t>I_100</t>
+  </si>
+  <si>
+    <t>I_101</t>
+  </si>
+  <si>
+    <t>I_102</t>
+  </si>
+  <si>
+    <t>I_103</t>
+  </si>
+  <si>
+    <t>data/multimedia/image_alternative/</t>
+  </si>
+  <si>
+    <t>AI-Generated</t>
+  </si>
+  <si>
+    <t>DaSCHland Alice navigating the RabbIT hole</t>
+  </si>
+  <si>
+    <t>Archival Madcap drinking tea</t>
+  </si>
+  <si>
+    <t>Cyberpillar on his mushroom</t>
+  </si>
+  <si>
+    <t>Alice arriving at DaSCHland entrance</t>
+  </si>
+  <si>
+    <t>Data Queen glowing red</t>
+  </si>
+  <si>
+    <t>Mock-up Data being obsolete</t>
+  </si>
+  <si>
+    <t>Quantum Cat appearing</t>
+  </si>
+  <si>
+    <t>RabbIT looking at 3D Map of DaSCHland</t>
+  </si>
+  <si>
+    <t>System Protector looking over data</t>
+  </si>
+  <si>
+    <t>Real-Time Processor being in the now</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>CH_003</t>
+  </si>
+  <si>
+    <t>CH_006</t>
+  </si>
+  <si>
+    <t>CH_009</t>
+  </si>
+  <si>
+    <t>CH_018</t>
+  </si>
+  <si>
+    <t>Description Alternative</t>
+  </si>
+  <si>
+    <t>IMGALT_Archival_Madcap.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
@@ -1498,6 +1618,11 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1542,7 +1667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1557,6 +1682,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1753,31 +1879,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="14" style="8" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="89.7109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="33" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="8" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="89.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="33" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1800,28 +1927,31 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -1843,29 +1973,30 @@
       <c r="G2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>372</v>
       </c>
@@ -1887,29 +2018,30 @@
       <c r="G3" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>2</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>470</v>
-      </c>
       <c r="M3" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1931,29 +2063,30 @@
       <c r="G4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>3</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
@@ -1975,29 +2108,30 @@
       <c r="G5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>4</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2019,29 +2153,30 @@
       <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>376</v>
       </c>
@@ -2063,29 +2198,30 @@
       <c r="G7" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>6</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>132</v>
       </c>
@@ -2107,29 +2243,30 @@
       <c r="G8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>7</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2151,29 +2288,30 @@
       <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>8</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>284</v>
       </c>
@@ -2195,29 +2333,30 @@
       <c r="G10" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>9</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2239,29 +2378,30 @@
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>10</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>96</v>
       </c>
@@ -2283,29 +2423,30 @@
       <c r="G12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K12" s="5">
-        <v>11</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M12" s="9" t="s">
+      <c r="L12" s="5">
+        <v>11</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
@@ -2327,29 +2468,30 @@
       <c r="G13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>12</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>148</v>
       </c>
@@ -2371,29 +2513,30 @@
       <c r="G14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>13</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>320</v>
       </c>
@@ -2415,29 +2558,30 @@
       <c r="G15" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>14</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="N15" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>168</v>
       </c>
@@ -2459,29 +2603,30 @@
       <c r="G16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>15</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>208</v>
       </c>
@@ -2503,29 +2648,30 @@
       <c r="G17" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>16</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>212</v>
       </c>
@@ -2547,29 +2693,30 @@
       <c r="G18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N18" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="N18" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>204</v>
       </c>
@@ -2591,29 +2738,30 @@
       <c r="G19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>18</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N19" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>200</v>
       </c>
@@ -2635,29 +2783,30 @@
       <c r="G20" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>19</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N20" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>216</v>
       </c>
@@ -2679,29 +2828,30 @@
       <c r="G21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>20</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N21" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="N21" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>192</v>
       </c>
@@ -2723,29 +2873,30 @@
       <c r="G22" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>21</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N22" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N22" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -2767,29 +2918,30 @@
       <c r="G23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>22</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>176</v>
       </c>
@@ -2811,29 +2963,30 @@
       <c r="G24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>23</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N24" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>172</v>
       </c>
@@ -2855,29 +3008,30 @@
       <c r="G25" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>24</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N25" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="N25" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>128</v>
       </c>
@@ -2899,29 +3053,30 @@
       <c r="G26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>25</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>244</v>
       </c>
@@ -2943,29 +3098,30 @@
       <c r="G27" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <v>26</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N27" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="N27" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>188</v>
       </c>
@@ -2987,29 +3143,30 @@
       <c r="G28" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>27</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="N28" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -3031,29 +3188,30 @@
       <c r="G29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>28</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N29" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="N29" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -3075,29 +3233,30 @@
       <c r="G30" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <v>29</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N30" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -3119,29 +3278,30 @@
       <c r="G31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="5">
         <v>30</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N31" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>196</v>
       </c>
@@ -3163,29 +3323,30 @@
       <c r="G32" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <v>31</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N32" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -3207,29 +3368,30 @@
       <c r="G33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <v>32</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>220</v>
       </c>
@@ -3251,29 +3413,30 @@
       <c r="G34" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L34" s="5">
         <v>33</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N34" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="N34" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>280</v>
       </c>
@@ -3295,29 +3458,30 @@
       <c r="G35" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="2"/>
+      <c r="I35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <v>34</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N35" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>276</v>
       </c>
@@ -3339,29 +3503,30 @@
       <c r="G36" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="2"/>
+      <c r="I36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <v>35</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>272</v>
       </c>
@@ -3383,29 +3548,30 @@
       <c r="G37" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="2"/>
+      <c r="I37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K37" s="5">
+      <c r="L37" s="5">
         <v>36</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="N37" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>368</v>
       </c>
@@ -3427,29 +3593,30 @@
       <c r="G38" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <v>37</v>
       </c>
-      <c r="L38" s="6" t="s">
-        <v>470</v>
-      </c>
       <c r="M38" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N38" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="N38" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>240</v>
       </c>
@@ -3471,29 +3638,30 @@
       <c r="G39" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <v>38</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N39" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="N39" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>236</v>
       </c>
@@ -3515,29 +3683,30 @@
       <c r="G40" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K40" s="5">
+      <c r="L40" s="5">
         <v>39</v>
       </c>
-      <c r="L40" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M40" s="9" t="s">
+      <c r="M40" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N40" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="N40" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>136</v>
       </c>
@@ -3559,29 +3728,30 @@
       <c r="G41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="2"/>
+      <c r="I41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <v>40</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M41" s="9" t="s">
+      <c r="M41" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N41" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>268</v>
       </c>
@@ -3603,29 +3773,30 @@
       <c r="G42" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="K42" s="5">
+      <c r="L42" s="5">
         <v>41</v>
       </c>
-      <c r="L42" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M42" s="9" t="s">
+      <c r="M42" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N42" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="N42" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>164</v>
       </c>
@@ -3647,29 +3818,30 @@
       <c r="G43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K43" s="5">
+      <c r="L43" s="5">
         <v>42</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M43" s="9" t="s">
+      <c r="M43" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N43" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="N43" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>360</v>
       </c>
@@ -3691,29 +3863,30 @@
       <c r="G44" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K44" s="5">
+      <c r="L44" s="5">
         <v>43</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>470</v>
-      </c>
       <c r="M44" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="N44" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>152</v>
       </c>
@@ -3735,29 +3908,30 @@
       <c r="G45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="2"/>
+      <c r="I45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="K45" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K45" s="5">
+      <c r="L45" s="5">
         <v>44</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M45" s="9" t="s">
+      <c r="M45" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N45" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N45" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>140</v>
       </c>
@@ -3779,29 +3953,30 @@
       <c r="G46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="2"/>
+      <c r="I46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="J46" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="K46" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K46" s="5">
+      <c r="L46" s="5">
         <v>45</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M46" s="9" t="s">
+      <c r="M46" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N46" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="N46" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -3823,29 +3998,30 @@
       <c r="G47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="2"/>
+      <c r="I47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="J47" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="K47" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K47" s="5">
+      <c r="L47" s="5">
         <v>46</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M47" s="9" t="s">
+      <c r="M47" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N47" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="N47" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -3867,29 +4043,30 @@
       <c r="G48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="2"/>
+      <c r="I48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="J48" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="K48" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K48" s="5">
+      <c r="L48" s="5">
         <v>47</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M48" s="9" t="s">
+      <c r="M48" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N48" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N48" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>184</v>
       </c>
@@ -3911,29 +4088,30 @@
       <c r="G49" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="2"/>
+      <c r="I49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="J49" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K49" s="5">
+      <c r="L49" s="5">
         <v>48</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M49" s="9" t="s">
+      <c r="M49" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N49" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="N49" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -3955,29 +4133,30 @@
       <c r="G50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="2"/>
+      <c r="I50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="J50" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="K50" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K50" s="5">
+      <c r="L50" s="5">
         <v>49</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M50" s="9" t="s">
+      <c r="M50" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N50" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N50" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>324</v>
       </c>
@@ -3999,29 +4178,30 @@
       <c r="G51" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="2"/>
+      <c r="I51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="J51" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="K51" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K51" s="5">
+      <c r="L51" s="5">
         <v>50</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M51" s="9" t="s">
+      <c r="M51" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N51" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="N51" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>260</v>
       </c>
@@ -4043,29 +4223,30 @@
       <c r="G52" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="2"/>
+      <c r="I52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="J52" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="K52" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <v>51</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M52" s="9" t="s">
+      <c r="M52" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="N52" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>328</v>
       </c>
@@ -4087,29 +4268,30 @@
       <c r="G53" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="2"/>
+      <c r="I53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="J53" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="K53" s="5">
+      <c r="L53" s="5">
         <v>52</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M53" s="9" t="s">
+      <c r="M53" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N53" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="N53" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>32</v>
       </c>
@@ -4131,29 +4313,30 @@
       <c r="G54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="2"/>
+      <c r="I54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="J54" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K54" s="5">
+      <c r="L54" s="5">
         <v>53</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M54" s="9" t="s">
+      <c r="M54" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N54" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N54" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>180</v>
       </c>
@@ -4175,27 +4358,28 @@
       <c r="G55" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="2"/>
+      <c r="I55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="J55" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="5">
+      <c r="K55" s="4"/>
+      <c r="L55" s="5">
         <v>54</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M55" s="9" t="s">
+      <c r="M55" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N55" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="N55" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
@@ -4217,29 +4401,30 @@
       <c r="G56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="2"/>
+      <c r="I56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="J56" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K56" s="5">
+      <c r="L56" s="5">
         <v>55</v>
       </c>
-      <c r="L56" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M56" s="9" t="s">
+      <c r="M56" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N56" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N56" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>124</v>
       </c>
@@ -4261,29 +4446,30 @@
       <c r="G57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="2"/>
+      <c r="I57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="J57" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="K57" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K57" s="5">
+      <c r="L57" s="5">
         <v>56</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M57" s="9" t="s">
+      <c r="M57" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N57" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="N57" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>312</v>
       </c>
@@ -4305,27 +4491,28 @@
       <c r="G58" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="2"/>
+      <c r="I58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="J58" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="5">
+      <c r="K58" s="4"/>
+      <c r="L58" s="5">
         <v>57</v>
       </c>
-      <c r="L58" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M58" s="9" t="s">
+      <c r="M58" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N58" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="N58" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>316</v>
       </c>
@@ -4347,27 +4534,28 @@
       <c r="G59" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="2"/>
+      <c r="I59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="J59" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="J59" s="4"/>
-      <c r="K59" s="5">
+      <c r="K59" s="4"/>
+      <c r="L59" s="5">
         <v>58</v>
       </c>
-      <c r="L59" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M59" s="9" t="s">
+      <c r="M59" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N59" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="N59" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>156</v>
       </c>
@@ -4389,27 +4577,28 @@
       <c r="G60" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="2"/>
+      <c r="I60" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="J60" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="5">
+      <c r="K60" s="4"/>
+      <c r="L60" s="5">
         <v>59</v>
       </c>
-      <c r="L60" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M60" s="9" t="s">
+      <c r="M60" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N60" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="N60" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
@@ -4431,29 +4620,30 @@
       <c r="G61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="2"/>
+      <c r="I61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="J61" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K61" s="5">
+      <c r="L61" s="5">
         <v>60</v>
       </c>
-      <c r="L61" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M61" s="9" t="s">
+      <c r="M61" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N61" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N61" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>40</v>
       </c>
@@ -4475,29 +4665,30 @@
       <c r="G62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="2"/>
+      <c r="I62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="J62" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K62" s="5">
+      <c r="L62" s="5">
         <v>61</v>
       </c>
-      <c r="L62" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M62" s="9" t="s">
+      <c r="M62" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N62" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N62" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>348</v>
       </c>
@@ -4519,29 +4710,30 @@
       <c r="G63" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="2"/>
+      <c r="I63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="J63" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="K63" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K63" s="5">
+      <c r="L63" s="5">
         <v>62</v>
       </c>
-      <c r="L63" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M63" s="9" t="s">
+      <c r="M63" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N63" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="N63" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>344</v>
       </c>
@@ -4563,29 +4755,30 @@
       <c r="G64" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="2"/>
+      <c r="I64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="J64" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="K64" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K64" s="5">
+      <c r="L64" s="5">
         <v>63</v>
       </c>
-      <c r="L64" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M64" s="9" t="s">
+      <c r="M64" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N64" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="N64" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>340</v>
       </c>
@@ -4607,29 +4800,30 @@
       <c r="G65" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="2"/>
+      <c r="I65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="J65" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="K65" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K65" s="5">
+      <c r="L65" s="5">
         <v>64</v>
       </c>
-      <c r="L65" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M65" s="9" t="s">
+      <c r="M65" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N65" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="N65" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>296</v>
       </c>
@@ -4651,29 +4845,30 @@
       <c r="G66" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="2"/>
+      <c r="I66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="J66" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="K66" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K66" s="5">
+      <c r="L66" s="5">
         <v>65</v>
       </c>
-      <c r="L66" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M66" s="9" t="s">
+      <c r="M66" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N66" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="N66" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>336</v>
       </c>
@@ -4695,29 +4890,30 @@
       <c r="G67" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="2"/>
+      <c r="I67" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="J67" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="K67" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K67" s="5">
+      <c r="L67" s="5">
         <v>66</v>
       </c>
-      <c r="L67" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M67" s="9" t="s">
+      <c r="M67" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N67" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="N67" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>332</v>
       </c>
@@ -4739,29 +4935,30 @@
       <c r="G68" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="2"/>
+      <c r="I68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="J68" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="K68" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K68" s="5">
+      <c r="L68" s="5">
         <v>67</v>
       </c>
-      <c r="L68" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M68" s="9" t="s">
+      <c r="M68" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="N68" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>15</v>
       </c>
@@ -4783,29 +4980,30 @@
       <c r="G69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="2"/>
+      <c r="I69" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="J69" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="K69" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K69" s="5">
+      <c r="L69" s="5">
         <v>68</v>
       </c>
-      <c r="L69" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M69" s="9" t="s">
+      <c r="M69" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N69" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>232</v>
       </c>
@@ -4827,29 +5025,30 @@
       <c r="G70" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="2"/>
+      <c r="I70" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="J70" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="K70" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K70" s="5">
+      <c r="L70" s="5">
         <v>69</v>
       </c>
-      <c r="L70" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M70" s="9" t="s">
+      <c r="M70" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N70" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -4871,29 +5070,30 @@
       <c r="G71" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="2"/>
+      <c r="I71" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="J71" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="K71" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K71" s="5">
+      <c r="L71" s="5">
         <v>70</v>
       </c>
-      <c r="L71" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M71" s="9" t="s">
+      <c r="M71" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N71" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="N71" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>112</v>
       </c>
@@ -4915,29 +5115,30 @@
       <c r="G72" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="2"/>
+      <c r="I72" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="J72" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="K72" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K72" s="5">
+      <c r="L72" s="5">
         <v>71</v>
       </c>
-      <c r="L72" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M72" s="9" t="s">
+      <c r="M72" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N72" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="N72" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>248</v>
       </c>
@@ -4959,29 +5160,30 @@
       <c r="G73" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="2"/>
+      <c r="I73" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="J73" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="K73" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K73" s="5">
+      <c r="L73" s="5">
         <v>72</v>
       </c>
-      <c r="L73" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M73" s="9" t="s">
+      <c r="M73" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N73" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="N73" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>256</v>
       </c>
@@ -5003,27 +5205,28 @@
       <c r="G74" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="2"/>
+      <c r="I74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="J74" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="J74" s="4"/>
-      <c r="K74" s="5">
+      <c r="K74" s="4"/>
+      <c r="L74" s="5">
         <v>73</v>
       </c>
-      <c r="L74" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M74" s="9" t="s">
+      <c r="M74" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N74" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="N74" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>252</v>
       </c>
@@ -5045,29 +5248,30 @@
       <c r="G75" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="2"/>
+      <c r="I75" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="J75" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="K75" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K75" s="5">
+      <c r="L75" s="5">
         <v>74</v>
       </c>
-      <c r="L75" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M75" s="9" t="s">
+      <c r="M75" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N75" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N75" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>352</v>
       </c>
@@ -5089,27 +5293,28 @@
       <c r="G76" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="2"/>
+      <c r="I76" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="J76" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="J76" s="4"/>
-      <c r="K76" s="5">
+      <c r="K76" s="4"/>
+      <c r="L76" s="5">
         <v>75</v>
       </c>
-      <c r="L76" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M76" s="9" t="s">
+      <c r="M76" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N76" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="N76" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>224</v>
       </c>
@@ -5131,29 +5336,30 @@
       <c r="G77" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="2"/>
+      <c r="I77" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="J77" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="K77" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K77" s="5">
+      <c r="L77" s="5">
         <v>76</v>
       </c>
-      <c r="L77" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M77" s="9" t="s">
+      <c r="M77" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N77" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="N77" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>228</v>
       </c>
@@ -5175,29 +5381,30 @@
       <c r="G78" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="2"/>
+      <c r="I78" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="11" t="s">
+      <c r="J78" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="K78" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="K78" s="5">
+      <c r="L78" s="5">
         <v>77</v>
       </c>
-      <c r="L78" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M78" s="9" t="s">
+      <c r="M78" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N78" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N78" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>68</v>
       </c>
@@ -5219,29 +5426,30 @@
       <c r="G79" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="2"/>
+      <c r="I79" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="J79" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="K79" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K79" s="5">
+      <c r="L79" s="5">
         <v>78</v>
       </c>
-      <c r="L79" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M79" s="9" t="s">
+      <c r="M79" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N79" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="N79" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>108</v>
       </c>
@@ -5263,29 +5471,30 @@
       <c r="G80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="2"/>
+      <c r="I80" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="J80" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="K80" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K80" s="5">
+      <c r="L80" s="5">
         <v>79</v>
       </c>
-      <c r="L80" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M80" s="9" t="s">
+      <c r="M80" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N80" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N80" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>300</v>
       </c>
@@ -5307,29 +5516,30 @@
       <c r="G81" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="2"/>
+      <c r="I81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="J81" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="K81" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K81" s="5">
+      <c r="L81" s="5">
         <v>80</v>
       </c>
-      <c r="L81" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M81" s="9" t="s">
+      <c r="M81" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N81" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="N81" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>356</v>
       </c>
@@ -5351,29 +5561,30 @@
       <c r="G82" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="2"/>
+      <c r="I82" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="J82" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="K82" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K82" s="5">
+      <c r="L82" s="5">
         <v>81</v>
       </c>
-      <c r="L82" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M82" s="9" t="s">
+      <c r="M82" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N82" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="N82" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>52</v>
       </c>
@@ -5395,29 +5606,30 @@
       <c r="G83" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="2"/>
+      <c r="I83" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="J83" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="K83" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K83" s="5">
+      <c r="L83" s="5">
         <v>82</v>
       </c>
-      <c r="L83" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M83" s="9" t="s">
+      <c r="M83" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N83" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N83" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>364</v>
       </c>
@@ -5439,29 +5651,30 @@
       <c r="G84" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="2"/>
+      <c r="I84" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="J84" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="K84" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K84" s="5">
+      <c r="L84" s="5">
         <v>83</v>
       </c>
-      <c r="L84" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M84" s="9" t="s">
+      <c r="M84" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N84" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="N84" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
@@ -5483,29 +5696,30 @@
       <c r="G85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="2"/>
+      <c r="I85" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="J85" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="K85" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K85" s="5">
+      <c r="L85" s="5">
         <v>84</v>
       </c>
-      <c r="L85" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M85" s="9" t="s">
+      <c r="M85" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N85" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N85" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>304</v>
       </c>
@@ -5527,29 +5741,30 @@
       <c r="G86" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="2"/>
+      <c r="I86" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="J86" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="K86" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="K86" s="5">
+      <c r="L86" s="5">
         <v>85</v>
       </c>
-      <c r="L86" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M86" s="9" t="s">
+      <c r="M86" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N86" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="N86" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>308</v>
       </c>
@@ -5571,29 +5786,30 @@
       <c r="G87" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="J87" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="K87" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="K87" s="5">
+      <c r="L87" s="5">
         <v>86</v>
       </c>
-      <c r="L87" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M87" s="9" t="s">
+      <c r="M87" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N87" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="N87" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>24</v>
       </c>
@@ -5615,29 +5831,30 @@
       <c r="G88" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="2"/>
+      <c r="I88" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="J88" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="K88" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K88" s="5">
+      <c r="L88" s="5">
         <v>87</v>
       </c>
-      <c r="L88" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M88" s="9" t="s">
+      <c r="M88" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N88" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N88" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>288</v>
       </c>
@@ -5659,27 +5876,28 @@
       <c r="G89" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="2"/>
+      <c r="I89" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I89" s="11" t="s">
+      <c r="J89" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="J89" s="4"/>
-      <c r="K89" s="5">
+      <c r="K89" s="4"/>
+      <c r="L89" s="5">
         <v>88</v>
       </c>
-      <c r="L89" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M89" s="10" t="s">
+      <c r="M89" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N89" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="N89" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>104</v>
       </c>
@@ -5701,29 +5919,30 @@
       <c r="G90" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="2"/>
+      <c r="I90" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="J90" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="K90" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K90" s="5">
+      <c r="L90" s="5">
         <v>89</v>
       </c>
-      <c r="L90" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M90" s="9" t="s">
+      <c r="M90" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N90" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N90" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>120</v>
       </c>
@@ -5745,29 +5964,30 @@
       <c r="G91" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H91" s="2"/>
+      <c r="I91" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="J91" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="K91" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K91" s="5">
+      <c r="L91" s="5">
         <v>90</v>
       </c>
-      <c r="L91" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M91" s="10" t="s">
+      <c r="M91" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N91" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="N91" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>116</v>
       </c>
@@ -5789,29 +6009,30 @@
       <c r="G92" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="2"/>
+      <c r="I92" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="J92" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="K92" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K92" s="5">
+      <c r="L92" s="5">
         <v>91</v>
       </c>
-      <c r="L92" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M92" s="10" t="s">
+      <c r="M92" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N92" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N92" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -5833,37 +6054,456 @@
       <c r="G93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="2"/>
+      <c r="I93" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="J93" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="K93" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K93" s="5">
+      <c r="L93" s="5">
         <v>92</v>
       </c>
-      <c r="L93" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M93" s="9" t="s">
+      <c r="M93" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N93" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N93" s="8" t="s">
-        <v>384</v>
+      <c r="O93" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L94" s="5">
+        <v>93</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L95" s="5">
+        <v>94</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L96" s="5">
+        <v>95</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L97" s="5">
+        <v>96</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L98" s="5">
+        <v>97</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L99" s="5">
+        <v>98</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L100" s="5">
+        <v>99</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L101" s="5">
+        <v>100</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L102" s="5">
+        <v>101</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L103" s="5">
+        <v>102</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L104" s="5">
+        <v>103</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N93" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N93">
-      <sortCondition ref="K1:K93"/>
+  <autoFilter ref="A1:O93" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O93">
+      <sortCondition ref="L1:L93"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/spreadsheets/Image.xlsx
+++ b/data/spreadsheets/Image.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB98B19-1B20-5149-B431-7343B114C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7EF500-343F-6B4E-8752-D6B41EFF691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="500" windowWidth="66540" windowHeight="31500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="1520" windowWidth="66540" windowHeight="31500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,9 +563,6 @@
     <t>IMG_1book23.jpg</t>
   </si>
   <si>
-    <t>Cheshire-Cat disappearing</t>
-  </si>
-  <si>
     <t>https://iiif.rdu-08.dasch.swiss:443/0854/5sESN9wsGRg-kQfkzTuxFed.jpx/full/846,548/0/default.jpg</t>
   </si>
   <si>
@@ -575,9 +572,6 @@
     <t>IMG_1book22.jpg</t>
   </si>
   <si>
-    <t>Cheshire-Cat grinning at Alice</t>
-  </si>
-  <si>
     <t>https://iiif.rdu-08.dasch.swiss:443/0854/0imp6owKpZo-mSR5NiponF8.jpx/full/863,1251/0/default.jpg</t>
   </si>
   <si>
@@ -635,9 +629,6 @@
     <t>IMG_1book30.jpg</t>
   </si>
   <si>
-    <t>Executioners and crowd collecting round Cheshire-Cat</t>
-  </si>
-  <si>
     <t>https://iiif.rdu-08.dasch.swiss:443/0854/4MdlmPTONaj-Zod0iPTaOvn.jpx/full/714,919/0/default.jpg</t>
   </si>
   <si>
@@ -1575,6 +1566,15 @@
   </si>
   <si>
     <t>IMGALT_Archival_Madcap.png</t>
+  </si>
+  <si>
+    <t>Cheshire Cat grinning at Alice</t>
+  </si>
+  <si>
+    <t>Cheshire Cat disappearing</t>
+  </si>
+  <si>
+    <t>Executioners and crowd collecting round Cheshire Cat</t>
   </si>
 </sst>
 </file>
@@ -1881,8 +1881,8 @@
   </sheetPr>
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1927,118 +1927,118 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L2" s="5">
         <v>1</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L3" s="5">
         <v>2</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,16 +2049,16 @@
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>58</v>
@@ -2068,22 +2068,22 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L4" s="5">
         <v>3</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2094,16 +2094,16 @@
         <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>78</v>
@@ -2113,22 +2113,22 @@
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L5" s="5">
         <v>4</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>79</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,16 +2139,16 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>66</v>
@@ -2158,67 +2158,67 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L6" s="5">
         <v>5</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L7" s="5">
         <v>6</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,16 +2229,16 @@
         <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>134</v>
@@ -2248,22 +2248,22 @@
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L8" s="5">
         <v>7</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>135</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2274,16 +2274,16 @@
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>38</v>
@@ -2293,67 +2293,67 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L9" s="5">
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L10" s="5">
         <v>9</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,19 +2361,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>12</v>
@@ -2383,22 +2383,22 @@
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L11" s="5">
         <v>10</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2409,16 +2409,16 @@
         <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>98</v>
@@ -2428,22 +2428,22 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L12" s="5">
         <v>11</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2454,16 +2454,16 @@
         <v>145</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>146</v>
@@ -2473,22 +2473,22 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L13" s="5">
         <v>12</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>147</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2499,16 +2499,16 @@
         <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>150</v>
@@ -2518,67 +2518,67 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L14" s="5">
         <v>13</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>151</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L15" s="5">
         <v>14</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2589,16 +2589,16 @@
         <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>170</v>
@@ -2608,292 +2608,292 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L16" s="5">
         <v>15</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>171</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L17" s="5">
         <v>16</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L18" s="5">
         <v>17</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L19" s="5">
         <v>18</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L20" s="5">
         <v>19</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L21" s="5">
         <v>20</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L22" s="5">
         <v>21</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2904,16 +2904,16 @@
         <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>82</v>
@@ -2923,67 +2923,67 @@
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L23" s="5">
         <v>22</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>83</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>178</v>
+        <v>509</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L24" s="5">
         <v>23</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2994,41 +2994,41 @@
         <v>173</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>174</v>
+        <v>510</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L25" s="5">
         <v>24</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,16 +3039,16 @@
         <v>129</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>130</v>
@@ -3058,112 +3058,112 @@
         <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L26" s="5">
         <v>25</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>131</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L27" s="5">
         <v>26</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L28" s="5">
         <v>27</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,16 +3174,16 @@
         <v>161</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>162</v>
@@ -3193,67 +3193,67 @@
         <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L29" s="5">
         <v>28</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>163</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L30" s="5">
         <v>29</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3264,16 +3264,16 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>74</v>
@@ -3283,67 +3283,67 @@
         <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L31" s="5">
         <v>30</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>75</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L32" s="5">
         <v>31</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3354,16 +3354,16 @@
         <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>22</v>
@@ -3373,337 +3373,337 @@
         <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L33" s="5">
         <v>32</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L34" s="5">
         <v>33</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L35" s="5">
         <v>34</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L36" s="5">
         <v>35</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L37" s="5">
         <v>36</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L38" s="5">
         <v>37</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L39" s="5">
         <v>38</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L40" s="5">
         <v>39</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3714,16 +3714,16 @@
         <v>137</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>138</v>
@@ -3733,67 +3733,67 @@
         <v>13</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L41" s="5">
         <v>40</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N41" s="9" t="s">
         <v>139</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L42" s="5">
         <v>41</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3804,16 +3804,16 @@
         <v>165</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>166</v>
@@ -3823,67 +3823,67 @@
         <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L43" s="5">
         <v>42</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N43" s="9" t="s">
         <v>167</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L44" s="5">
         <v>43</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3894,16 +3894,16 @@
         <v>153</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>154</v>
@@ -3913,22 +3913,22 @@
         <v>18</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L45" s="5">
         <v>44</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N45" s="9" t="s">
         <v>155</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3939,16 +3939,16 @@
         <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>142</v>
@@ -3958,22 +3958,22 @@
         <v>18</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L46" s="5">
         <v>45</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>143</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3984,16 +3984,16 @@
         <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>62</v>
@@ -4003,22 +4003,22 @@
         <v>18</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L47" s="5">
         <v>46</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N47" s="9" t="s">
         <v>63</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4029,16 +4029,16 @@
         <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>50</v>
@@ -4048,67 +4048,67 @@
         <v>18</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L48" s="5">
         <v>47</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>51</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L49" s="5">
         <v>48</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4119,16 +4119,16 @@
         <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>102</v>
@@ -4138,157 +4138,157 @@
         <v>18</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L50" s="5">
         <v>49</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N50" s="9" t="s">
         <v>103</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L51" s="5">
         <v>50</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L52" s="5">
         <v>51</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L53" s="5">
         <v>52</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,16 +4299,16 @@
         <v>33</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
@@ -4318,65 +4318,65 @@
         <v>18</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L54" s="5">
         <v>53</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N54" s="9" t="s">
         <v>35</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="5">
         <v>54</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4387,16 +4387,16 @@
         <v>29</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>30</v>
@@ -4406,22 +4406,22 @@
         <v>18</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L56" s="5">
         <v>55</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N56" s="9" t="s">
         <v>31</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,16 +4432,16 @@
         <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>126</v>
@@ -4451,108 +4451,108 @@
         <v>18</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L57" s="5">
         <v>56</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N57" s="9" t="s">
         <v>127</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="5">
         <v>57</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="5">
         <v>58</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4563,16 +4563,16 @@
         <v>157</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>158</v>
@@ -4582,20 +4582,20 @@
         <v>18</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="5">
         <v>59</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N60" s="9" t="s">
         <v>159</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4606,16 +4606,16 @@
         <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>46</v>
@@ -4625,22 +4625,22 @@
         <v>18</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L61" s="5">
         <v>60</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N61" s="9" t="s">
         <v>47</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,16 +4651,16 @@
         <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>42</v>
@@ -4670,292 +4670,292 @@
         <v>18</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L62" s="5">
         <v>61</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N62" s="9" t="s">
         <v>43</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L63" s="5">
         <v>62</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L64" s="5">
         <v>63</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L65" s="5">
         <v>64</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L66" s="5">
         <v>65</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L67" s="5">
         <v>66</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L68" s="5">
         <v>67</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,16 +4966,16 @@
         <v>16</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>17</v>
@@ -4985,67 +4985,67 @@
         <v>18</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L69" s="5">
         <v>68</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N69" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L70" s="5">
         <v>69</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,16 +5056,16 @@
         <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>86</v>
@@ -5075,22 +5075,22 @@
         <v>18</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L71" s="5">
         <v>70</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N71" s="9" t="s">
         <v>87</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5101,16 +5101,16 @@
         <v>113</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>114</v>
@@ -5120,288 +5120,288 @@
         <v>18</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L72" s="5">
         <v>71</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N72" s="9" t="s">
         <v>115</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L73" s="5">
         <v>72</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="5">
         <v>73</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L75" s="5">
         <v>74</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="5">
         <v>75</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L77" s="5">
         <v>76</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L78" s="5">
         <v>77</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5412,16 +5412,16 @@
         <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>70</v>
@@ -5431,22 +5431,22 @@
         <v>18</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L79" s="5">
         <v>78</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N79" s="9" t="s">
         <v>71</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5457,16 +5457,16 @@
         <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>110</v>
@@ -5476,112 +5476,112 @@
         <v>18</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L80" s="5">
         <v>79</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N80" s="9" t="s">
         <v>111</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L81" s="5">
         <v>80</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L82" s="5">
         <v>81</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5592,16 +5592,16 @@
         <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>54</v>
@@ -5611,67 +5611,67 @@
         <v>18</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L83" s="5">
         <v>82</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N83" s="9" t="s">
         <v>55</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L84" s="5">
         <v>83</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5682,16 +5682,16 @@
         <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>90</v>
@@ -5701,112 +5701,112 @@
         <v>18</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L85" s="5">
         <v>84</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N85" s="9" t="s">
         <v>91</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L86" s="5">
         <v>85</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L87" s="5">
         <v>86</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5817,16 +5817,16 @@
         <v>25</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
@@ -5836,65 +5836,65 @@
         <v>18</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L88" s="5">
         <v>87</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N88" s="9" t="s">
         <v>27</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="5">
         <v>88</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5905,16 +5905,16 @@
         <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>106</v>
@@ -5924,22 +5924,22 @@
         <v>18</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L90" s="5">
         <v>89</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N90" s="9" t="s">
         <v>107</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5950,16 +5950,16 @@
         <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>122</v>
@@ -5969,22 +5969,22 @@
         <v>18</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L91" s="5">
         <v>90</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>123</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,16 +5995,16 @@
         <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>118</v>
@@ -6014,22 +6014,22 @@
         <v>18</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L92" s="5">
         <v>91</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N92" s="10" t="s">
         <v>119</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6040,16 +6040,16 @@
         <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>94</v>
@@ -6059,440 +6059,440 @@
         <v>18</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L93" s="5">
         <v>92</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N93" s="9" t="s">
         <v>95</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L94" s="5">
         <v>93</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L95" s="5">
         <v>94</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H96" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>496</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L96" s="5">
         <v>95</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H97" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>497</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L97" s="5">
         <v>96</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L98" s="5">
         <v>97</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L99" s="5">
         <v>98</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L100" s="5">
         <v>99</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L101" s="5">
         <v>100</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="H102" s="8" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L102" s="5">
         <v>101</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>494</v>
-      </c>
       <c r="D103" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L103" s="5">
         <v>102</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L104" s="5">
         <v>103</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
